--- a/Resultados/field_36ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/Resultados/field_36ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_36ha_100ha_18%_6m_0_LM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="279" documentId="11_B11D4B5C41B5DBEAEE8B56ADE120D792AC992784" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41C2F331-4F56-4502-9A8F-0EEC192F0095}"/>
+  <xr:revisionPtr revIDLastSave="280" documentId="11_B11D4B5C41B5DBEAEE8B56ADE120D792AC992784" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDD2E066-499A-443B-AB9B-5DCBDE9D97BD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="70">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Resultado 28</t>
+  </si>
+  <si>
+    <t>field_36ha_100ha_18%_6m_0_LM\</t>
   </si>
 </sst>
 </file>
@@ -8079,13 +8082,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CF96E0-4A7E-4703-9BB3-FA560011069D}">
   <sheetPr codeName="Planilha33"/>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -8113,8 +8116,11 @@
       <c r="J1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -8154,7 +8160,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -8185,7 +8191,7 @@
         <v>1.240308</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -8216,7 +8222,7 @@
         <v>1.345248</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -8247,7 +8253,7 @@
         <v>1.4108039999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -8278,7 +8284,7 @@
         <v>1.4542200000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -8309,7 +8315,7 @@
         <v>1.491552</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -8340,7 +8346,7 @@
         <v>1.5161039999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -8371,7 +8377,7 @@
         <v>1.5375239999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -8402,7 +8408,7 @@
         <v>1.5521039999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -8433,7 +8439,7 @@
         <v>1.5662879999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -8464,7 +8470,7 @@
         <v>1.5720479999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -8495,7 +8501,7 @@
         <v>1.5834600000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -8526,7 +8532,7 @@
         <v>1.5906959999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -8557,7 +8563,7 @@
         <v>1.609596</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
